--- a/Examples/pcb/PCB2020_model.xlsx
+++ b/Examples/pcb/PCB2020_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025D8C28-65C8-4904-BBAA-E7D3DDDD4DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870EF45C-B34D-4134-B2C8-C5DC639C7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="935" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="375" windowWidth="23670" windowHeight="12525" tabRatio="935" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="50" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="202">
   <si>
     <t>key</t>
   </si>
@@ -327,9 +327,6 @@
     <t>F2</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -423,22 +420,13 @@
     <t>L2</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>N1</t>
-  </si>
-  <si>
-    <t>N3</t>
   </si>
   <si>
     <t>Formula de exergía de concentración y ver si tiene sentido</t>
@@ -451,9 +439,6 @@
   </si>
   <si>
     <t>AB2</t>
-  </si>
-  <si>
-    <t>BW</t>
   </si>
   <si>
     <t>FK</t>
@@ -475,12 +460,6 @@
   </si>
   <si>
     <t>J1+J2</t>
-  </si>
-  <si>
-    <t>N1+N2+MN</t>
-  </si>
-  <si>
-    <t>AIR</t>
   </si>
   <si>
     <t>DeCu</t>
@@ -561,9 +540,6 @@
     <t>Exahusted Anode</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
@@ -616,9 +592,6 @@
   </si>
   <si>
     <t>Slag Waste</t>
-  </si>
-  <si>
-    <t>HW</t>
   </si>
   <si>
     <t>Hot Gases Waste</t>
@@ -681,16 +654,7 @@
     <t>F1+F2+KF+(EF-FD)</t>
   </si>
   <si>
-    <t>F3+FK</t>
-  </si>
-  <si>
     <t>KL+KF</t>
-  </si>
-  <si>
-    <t>L3+LM</t>
-  </si>
-  <si>
-    <t>M3+MN</t>
   </si>
   <si>
     <t>GH</t>
@@ -736,6 +700,48 @@
   </si>
   <si>
     <t>R_H2</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>HGW</t>
+  </si>
+  <si>
+    <t>SLW</t>
+  </si>
+  <si>
+    <t>Ag+LM</t>
+  </si>
+  <si>
+    <t>Au+MN</t>
+  </si>
+  <si>
+    <t>Cu+FK</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Slimes Waste</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N1+N2+(MN-N3)</t>
+  </si>
+  <si>
+    <t>SLMW</t>
+  </si>
+  <si>
+    <t>Slimes (Waste)</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1328,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1373,6 +1379,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -31086,12 +31096,12 @@
   <sheetData>
     <row r="11" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -31105,15 +31115,16 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -31124,13 +31135,18 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="B1" s="3" t="str">
+        <f>Flows!A53</f>
+        <v>SLW</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <f>Flows!A54</f>
+        <v>HGW</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>Flows!A55</f>
+        <v>NW</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -31147,7 +31163,9 @@
       <c r="C2" s="3">
         <v>0.9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -31164,7 +31182,9 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -31181,7 +31201,9 @@
       <c r="C4" s="3">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -31198,7 +31220,9 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -31215,7 +31239,9 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -31232,7 +31258,9 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -31361,10 +31389,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31382,7 +31410,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -31393,7 +31421,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -31404,29 +31432,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -31437,7 +31465,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -31448,18 +31476,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -31470,18 +31498,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -31492,7 +31520,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -31503,7 +31531,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -31514,18 +31542,18 @@
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -31536,7 +31564,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -31547,7 +31575,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -31558,7 +31586,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -31569,7 +31597,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -31580,7 +31608,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -31591,7 +31619,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -31602,7 +31630,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -31613,7 +31641,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -31624,18 +31652,18 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -31646,95 +31674,95 @@
         <v>3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -31745,18 +31773,18 @@
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -31767,201 +31795,217 @@
         <v>3</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>4</v>
+      <c r="A51" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>27</v>
+      <c r="A52" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54"/>
+      <c r="A54" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55"/>
+      <c r="A55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -32017,6 +32061,9 @@
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B35" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
@@ -32031,10 +32078,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32073,13 +32120,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -32090,10 +32137,10 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -32107,10 +32154,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -32124,10 +32171,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -32141,10 +32188,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -32158,13 +32205,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -32175,13 +32222,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -32192,13 +32239,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -32206,16 +32253,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -32223,16 +32270,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -32240,16 +32287,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -32257,16 +32304,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -32274,16 +32321,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -32291,16 +32338,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>105</v>
+      <c r="D15" t="str">
+        <f>Flows!A53</f>
+        <v>SLW</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -32308,18 +32356,36 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="D16" t="str">
+        <f>Flows!A54</f>
+        <v>HGW</v>
       </c>
       <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -32331,13 +32397,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32351,13 +32417,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32693,7 +32759,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>Flows!A24</f>
-        <v>F3</v>
+        <v>Cu</v>
       </c>
       <c r="B24" s="3">
         <v>54774.774587753811</v>
@@ -32798,7 +32864,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>Flows!A31</f>
-        <v>H3</v>
+        <v>STM</v>
       </c>
       <c r="B31" s="3">
         <v>8794.9356028080419</v>
@@ -32978,7 +33044,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>Flows!A43</f>
-        <v>L3</v>
+        <v>Ag</v>
       </c>
       <c r="B43" s="3">
         <v>73369.473883179162</v>
@@ -33038,7 +33104,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f>Flows!A47</f>
-        <v>M3</v>
+        <v>Au</v>
       </c>
       <c r="B47" s="3">
         <v>739619.72002188757</v>
@@ -33100,55 +33166,75 @@
         <f>Flows!A51</f>
         <v>N3</v>
       </c>
-      <c r="B51" s="3">
-        <v>143789.73425115633</v>
-      </c>
-      <c r="C51" s="3">
-        <v>152846.19386726792</v>
-      </c>
-      <c r="D51" s="3">
-        <v>9881721.1926139649</v>
+      <c r="B51" s="5">
+        <v>9667.6557316041435</v>
+      </c>
+      <c r="C51" s="5">
+        <v>14037.22412847646</v>
+      </c>
+      <c r="D51" s="5">
+        <v>112528.34427398071</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f>Flows!A52</f>
-        <v>BW</v>
+        <v>Pd</v>
       </c>
       <c r="B52" s="3">
-        <v>11207.74280336316</v>
+        <v>143789.73425115633</v>
       </c>
       <c r="C52" s="3">
-        <v>11297.732090417421</v>
+        <v>152846.19386726792</v>
       </c>
       <c r="D52" s="3">
-        <v>20574.297529313444</v>
+        <v>9881721.1926139649</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f>Flows!A53</f>
-        <v>HW</v>
+        <v>SLW</v>
       </c>
       <c r="B53" s="3">
-        <v>5429.8561042141682</v>
+        <v>11207.74280336316</v>
       </c>
       <c r="C53" s="3">
-        <v>5429.8561042141682</v>
+        <v>11297.732090417421</v>
       </c>
       <c r="D53" s="3">
-        <v>5429.8561042141682</v>
+        <v>20574.297529313444</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="3" t="str">
+        <f>Flows!A54</f>
+        <v>HGW</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5429.8561042141682</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="3" t="str">
+        <f>Flows!A55</f>
+        <v>NW</v>
+      </c>
+      <c r="B55" s="5">
+        <v>9667.6557316041435</v>
+      </c>
+      <c r="C55" s="5">
+        <v>14037.22412847646</v>
+      </c>
+      <c r="D55" s="5">
+        <v>112528.34427398071</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
@@ -33240,6 +33326,11 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33380,31 +33471,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -33514,7 +33605,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -33794,7 +33885,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -33829,7 +33920,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33864,7 +33955,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -33899,7 +33990,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33969,7 +34060,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -34004,7 +34095,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -34039,7 +34130,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -34074,7 +34165,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -34109,7 +34200,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -34144,7 +34235,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -34179,7 +34270,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34214,7 +34305,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -34268,10 +34359,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34292,8 +34383,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>105</v>
+      <c r="A2" s="3" t="str">
+        <f>Flows!A53</f>
+        <v>SLW</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -34303,19 +34395,32 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>160</v>
+      <c r="A3" s="3" t="str">
+        <f>Flows!A54</f>
+        <v>HGW</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
+        <f>Flows!A55</f>
+        <v>NW</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C3" xr:uid="{1F0E4B7A-2C5F-4025-A238-14B0F5D8FF1B}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C4" xr:uid="{1F0E4B7A-2C5F-4025-A238-14B0F5D8FF1B}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/Examples/pcb/PCB2020_model.xlsx
+++ b/Examples/pcb/PCB2020_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870EF45C-B34D-4134-B2C8-C5DC639C7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D812513-0901-4969-BBF7-F32456F1ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="375" windowWidth="23670" windowHeight="12525" tabRatio="935" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="975" windowWidth="23670" windowHeight="12525" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="50" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="WasteAllocation" sheetId="17" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$1:$B$36</definedName>
-    <definedName name="cgam_flows" localSheetId="3">Flows!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$1:$B$25</definedName>
+    <definedName name="cgam_flows" localSheetId="3">Flows!$A$1:$B$4</definedName>
     <definedName name="cgam_processes" localSheetId="4">Processes!$A$1:$E$1</definedName>
-    <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$B$8</definedName>
+    <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$B$6</definedName>
     <definedName name="tgas_c0" localSheetId="7">ResourcesCost!$A$1:$B$2</definedName>
     <definedName name="tgas_fmt" localSheetId="6">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -50,38 +50,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{784E937E-64E4-4E49-A2D0-AC309A4AD9B4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Colores tipos:
-- Electricidad --&gt; Amarillo
-- Coke --&gt; Marrón
-- Gas natural --&gt; Gris
-- PCB --&gt; Verde
-- Fundentes --&gt; Azul (Se divide el coste calculado entre la exergía total. (pestaña All_Flows)
-- Aire --&gt; Blanco
-- Agua --&gt; Blanco
-- Electrolito --&gt; Morado
-- Químicos Slime recovery --&gt; Naranja</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -136,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="191">
   <si>
     <t>key</t>
   </si>
@@ -678,30 +646,6 @@
     <t>H1+H2+(GH+CI-H4)</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>NR_Elec</t>
-  </si>
-  <si>
-    <t>NR_H2</t>
-  </si>
-  <si>
-    <t>R_Elec</t>
-  </si>
-  <si>
-    <t>R_H2</t>
-  </si>
-  <si>
     <t>ASU</t>
   </si>
   <si>
@@ -726,29 +670,20 @@
     <t>Cu+FK</t>
   </si>
   <si>
-    <t>NW</t>
+    <t>N1+N2+MN</t>
   </si>
   <si>
-    <t>Slimes Waste</t>
+    <t>REN</t>
   </si>
   <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>N1+N2+(MN-N3)</t>
-  </si>
-  <si>
-    <t>SLMW</t>
-  </si>
-  <si>
-    <t>Slimes (Waste)</t>
+    <t xml:space="preserve"> NR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,12 +696,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -896,7 +825,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,25 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,48 +1210,48 @@
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1355,35 +1278,28 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="20% - Accent1" xfId="2" xr:uid="{A37FE372-3E7C-47E9-8AF8-82999DC37354}"/>
@@ -31112,10 +31028,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661325A-3C94-4A5B-B56A-7CFBE37AECF6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31123,37 +31039,32 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="str">
+        <f>Flows!A52</f>
+        <v>SLW</v>
+      </c>
+      <c r="C1" s="3" t="str">
         <f>Flows!A53</f>
-        <v>SLW</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <f>Flows!A54</f>
         <v>HGW</v>
       </c>
-      <c r="D1" s="3" t="str">
-        <f>Flows!A55</f>
-        <v>NW</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -31163,16 +31074,13 @@
       <c r="C2" s="3">
         <v>0.9</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>36</v>
       </c>
@@ -31182,16 +31090,13 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>37</v>
       </c>
@@ -31201,16 +31106,13 @@
       <c r="C4" s="3">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -31220,16 +31122,13 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
@@ -31239,16 +31138,13 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -31258,14 +31154,11 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31389,10 +31282,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31436,576 +31329,561 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="A5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>2</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>123</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>84</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>2</v>
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>2</v>
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>2</v>
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>2</v>
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>2</v>
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>2</v>
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>4</v>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>2</v>
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>2</v>
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
+      <c r="A48" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>2</v>
+      <c r="A49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>2</v>
+      <c r="A50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>3</v>
+      <c r="A51" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>4</v>
+      <c r="A52" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>197</v>
-      </c>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -32058,12 +31936,6 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B35" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
@@ -32078,10 +31950,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32211,7 +32083,7 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -32245,7 +32117,7 @@
         <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -32253,7 +32125,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
         <v>165</v>
@@ -32296,7 +32168,7 @@
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -32313,7 +32185,7 @@
         <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -32327,7 +32199,7 @@
         <v>169</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
@@ -32347,7 +32219,7 @@
         <v>51</v>
       </c>
       <c r="D15" t="str">
-        <f>Flows!A53</f>
+        <f>Flows!A52</f>
         <v>SLW</v>
       </c>
       <c r="E15" t="s">
@@ -32365,45 +32237,29 @@
         <v>134</v>
       </c>
       <c r="D16" t="str">
-        <f>Flows!A54</f>
+        <f>Flows!A53</f>
         <v>HGW</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32413,828 +32269,808 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="23" t="str">
         <f>Flows!A2</f>
         <v>A1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="23">
         <v>1101744.4940024994</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="23">
         <v>1541591.1901311381</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="23">
         <v>11688622.783103174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="23" t="str">
         <f>Flows!A3</f>
         <v>A2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="23">
         <v>877.4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="23">
         <v>877.4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="23">
         <v>877.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="23" t="str">
         <f>Flows!A4</f>
-        <v>AB1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>66178.293835996054</v>
-      </c>
-      <c r="C4" s="3">
-        <v>66178.293835996054</v>
-      </c>
-      <c r="D4" s="3">
-        <v>66178.293835996054</v>
+        <v>B2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1551.5980110100579</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1551.5980110100579</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1551.5980110100579</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="23" t="str">
         <f>Flows!A5</f>
-        <v>AB2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1035566.2001665032</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1475412.8962951419</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11622444.489267178</v>
+        <v>C1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1976.7766512828066</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1976.7766512828066</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1976.7766512828066</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="23" t="str">
         <f>Flows!A6</f>
-        <v>B2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1551.5980110100579</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1551.5980110100579</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1551.5980110100579</v>
+        <v>C2</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1517.7314774427114</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1517.7314774427114</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1517.7314774427114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="23" t="str">
         <f>Flows!A7</f>
-        <v>BC</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1054384.0209539761</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1495567.133131674</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11780363.468313694</v>
+        <v>D1</v>
+      </c>
+      <c r="B7" s="23">
+        <v>4455.1553999217176</v>
+      </c>
+      <c r="C7" s="23">
+        <v>4455.1553999217176</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4455.1553999217176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="23" t="str">
         <f>Flows!A8</f>
-        <v>BG</v>
-      </c>
-      <c r="B8" s="3">
-        <v>17800.057135963369</v>
-      </c>
-      <c r="C8" s="3">
-        <v>17800.057135963369</v>
-      </c>
-      <c r="D8" s="3">
-        <v>17800.057135963369</v>
+        <v>D2</v>
+      </c>
+      <c r="B8" s="23">
+        <v>407.11280819108799</v>
+      </c>
+      <c r="C8" s="23">
+        <v>407.11280819108799</v>
+      </c>
+      <c r="D8" s="23">
+        <v>407.11280819108799</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="23" t="str">
         <f>Flows!A9</f>
-        <v>B3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11207.74280336316</v>
-      </c>
-      <c r="C9" s="3">
-        <v>11297.732090417421</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20574.297529313444</v>
+        <v>D3</v>
+      </c>
+      <c r="B9" s="23">
+        <v>77.961918282329151</v>
+      </c>
+      <c r="C9" s="23">
+        <v>77.961918282329151</v>
+      </c>
+      <c r="D9" s="23">
+        <v>77.961918282329151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="23" t="str">
         <f>Flows!A10</f>
-        <v>C1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1976.7766512828066</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1976.7766512828066</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1976.7766512828066</v>
+        <v>E1</v>
+      </c>
+      <c r="B10" s="23">
+        <v>23.004962074669844</v>
+      </c>
+      <c r="C10" s="23">
+        <v>23.004962074669844</v>
+      </c>
+      <c r="D10" s="23">
+        <v>23.004962074669844</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="23" t="str">
         <f>Flows!A11</f>
-        <v>C2</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1517.7314774427114</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1517.7314774427114</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1517.7314774427114</v>
+        <v>F1</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1426.1038739068899</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1426.1038739068899</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1426.1038739068899</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="23" t="str">
         <f>Flows!A12</f>
-        <v>CB</v>
-      </c>
-      <c r="B12" s="3">
-        <v>32254.056410631896</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33680.461746746274</v>
-      </c>
-      <c r="D12" s="3">
-        <v>180721.76939569783</v>
+        <v>F2</v>
+      </c>
+      <c r="B12" s="23">
+        <v>159.93037774533582</v>
+      </c>
+      <c r="C12" s="23">
+        <v>159.93037774533582</v>
+      </c>
+      <c r="D12" s="23">
+        <v>159.93037774533582</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="23" t="str">
         <f>Flows!A13</f>
-        <v>CD</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1027456.5037477572</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1467427.1573803532</v>
-      </c>
-      <c r="D13" s="3">
-        <v>11627236.936898174</v>
+        <v>G1</v>
+      </c>
+      <c r="B13" s="23">
+        <v>18.860842352260732</v>
+      </c>
+      <c r="C13" s="23">
+        <v>18.860842352260732</v>
+      </c>
+      <c r="D13" s="23">
+        <v>18.860842352260732</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="23" t="str">
         <f>Flows!A14</f>
-        <v>CI</v>
-      </c>
-      <c r="B14" s="3">
-        <v>683.94913122363914</v>
-      </c>
-      <c r="C14" s="3">
-        <v>683.94913122363914</v>
-      </c>
-      <c r="D14" s="3">
-        <v>683.94913122363914</v>
+        <v>H1</v>
+      </c>
+      <c r="B14" s="23">
+        <v>276.90367962963307</v>
+      </c>
+      <c r="C14" s="23">
+        <v>276.90367962963307</v>
+      </c>
+      <c r="D14" s="23">
+        <v>276.90367962963307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="23" t="str">
         <f>Flows!A15</f>
-        <v>D1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4455.1553999217176</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4455.1553999217176</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4455.1553999217176</v>
+        <v>H2</v>
+      </c>
+      <c r="B15" s="23">
+        <v>103.30918253911165</v>
+      </c>
+      <c r="C15" s="23">
+        <v>103.30918253911165</v>
+      </c>
+      <c r="D15" s="23">
+        <v>103.30918253911165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="23" t="str">
         <f>Flows!A16</f>
-        <v>D2</v>
-      </c>
-      <c r="B16" s="3">
-        <v>407.11280819108799</v>
-      </c>
-      <c r="C16" s="3">
-        <v>407.11280819108799</v>
-      </c>
-      <c r="D16" s="3">
-        <v>407.11280819108799</v>
+        <v>J1</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1030.2258184707816</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1030.2258184707816</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1030.2258184707816</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="23" t="str">
         <f>Flows!A17</f>
-        <v>D3</v>
-      </c>
-      <c r="B17" s="3">
-        <v>77.961918282329151</v>
-      </c>
-      <c r="C17" s="3">
-        <v>77.961918282329151</v>
-      </c>
-      <c r="D17" s="3">
-        <v>77.961918282329151</v>
+        <v>J2</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3470.9686700000002</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3470.9686700000002</v>
+      </c>
+      <c r="D17" s="23">
+        <v>3470.9686700000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="23" t="str">
         <f>Flows!A18</f>
-        <v>DC</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4829.1007822415077</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5043.0535583315141</v>
-      </c>
-      <c r="D18" s="3">
-        <v>27098.422516145965</v>
+        <v>K1</v>
+      </c>
+      <c r="B18" s="23">
+        <v>6318.6202630866837</v>
+      </c>
+      <c r="C18" s="23">
+        <v>6318.6202630866837</v>
+      </c>
+      <c r="D18" s="23">
+        <v>6318.6202630866837</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
+      <c r="A19" s="23" t="str">
         <f>Flows!A19</f>
-        <v>DE</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1176477.3775613287</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1682197.5218184248</v>
-      </c>
-      <c r="D19" s="3">
-        <v>13340608.730729658</v>
+        <v>K2</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
+      <c r="A20" s="23" t="str">
         <f>Flows!A20</f>
-        <v>E1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>23.004962074669844</v>
-      </c>
-      <c r="C20" s="3">
-        <v>23.004962074669844</v>
-      </c>
-      <c r="D20" s="3">
-        <v>23.004962074669844</v>
+        <v>L1</v>
+      </c>
+      <c r="B20" s="23">
+        <v>2694.4458295273284</v>
+      </c>
+      <c r="C20" s="23">
+        <v>2694.4458295273284</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2694.4458295273284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
+      <c r="A21" s="23" t="str">
         <f>Flows!A21</f>
-        <v>EF</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1175759.0945213542</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1681479.2387784503</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13339890.447689682</v>
+        <v>L2</v>
+      </c>
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
+      <c r="A22" s="23" t="str">
         <f>Flows!A22</f>
-        <v>F1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1426.1038739068899</v>
+        <v>M1</v>
+      </c>
+      <c r="B22" s="23">
+        <v>413.33354580790495</v>
+      </c>
+      <c r="C22" s="23">
+        <v>413.33354580790495</v>
+      </c>
+      <c r="D22" s="23">
+        <v>413.33354580790495</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="23" t="str">
         <f>Flows!A23</f>
-        <v>F2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>159.93037774533582</v>
-      </c>
-      <c r="C23" s="3">
-        <v>159.93037774533582</v>
-      </c>
-      <c r="D23" s="3">
-        <v>159.93037774533582</v>
+        <v>M2</v>
+      </c>
+      <c r="B23" s="23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="23" t="str">
         <f>Flows!A24</f>
-        <v>Cu</v>
-      </c>
-      <c r="B24" s="3">
-        <v>54774.774587753811</v>
-      </c>
-      <c r="C24" s="3">
-        <v>57524.253771586227</v>
-      </c>
-      <c r="D24" s="3">
-        <v>340954.91987214651</v>
+        <v>N1</v>
+      </c>
+      <c r="B24" s="23">
+        <v>7407.4112151954041</v>
+      </c>
+      <c r="C24" s="23">
+        <v>7407.4112151954041</v>
+      </c>
+      <c r="D24" s="23">
+        <v>7407.4112151954041</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="23" t="str">
         <f>Flows!A25</f>
-        <v>FD</v>
-      </c>
-      <c r="B25" s="3">
-        <v>153359.19264649265</v>
-      </c>
-      <c r="C25" s="3">
-        <v>219322.45532849868</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1739978.7161293542</v>
+        <v>N2</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
+      <c r="A26" s="23" t="str">
         <f>Flows!A26</f>
-        <v>FK</v>
-      </c>
-      <c r="B26" s="3">
-        <v>966555.25514036044</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1403512.0948275938</v>
-      </c>
-      <c r="D26" s="3">
-        <v>11252624.109377664</v>
+        <v>AB1</v>
+      </c>
+      <c r="B26" s="23">
+        <v>66178.293835996054</v>
+      </c>
+      <c r="C26" s="23">
+        <v>66178.293835996054</v>
+      </c>
+      <c r="D26" s="23">
+        <v>66178.293835996054</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="23" t="str">
         <f>Flows!A27</f>
-        <v>G1</v>
-      </c>
-      <c r="B27" s="3">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="C27" s="3">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="D27" s="3">
-        <v>18.860842352260732</v>
+        <v>AB2</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1035566.2001665032</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1475412.8962951419</v>
+      </c>
+      <c r="D27" s="23">
+        <v>11622444.489267178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
+      <c r="A28" s="23" t="str">
         <f>Flows!A28</f>
-        <v>GH</v>
-      </c>
-      <c r="B28" s="3">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="D28" s="3">
-        <v>17561.899402017785</v>
+        <v>BC</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1054384.0209539761</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1495567.133131674</v>
+      </c>
+      <c r="D28" s="23">
+        <v>11780363.468313694</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
+      <c r="A29" s="23" t="str">
         <f>Flows!A29</f>
-        <v>H1</v>
-      </c>
-      <c r="B29" s="3">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="C29" s="3">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="D29" s="3">
-        <v>276.90367962963307</v>
+        <v>BG</v>
+      </c>
+      <c r="B29" s="23">
+        <v>17800.057135963369</v>
+      </c>
+      <c r="C29" s="23">
+        <v>17800.057135963369</v>
+      </c>
+      <c r="D29" s="23">
+        <v>17800.057135963369</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
+      <c r="A30" s="23" t="str">
         <f>Flows!A30</f>
-        <v>H2</v>
-      </c>
-      <c r="B30" s="3">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="C30" s="3">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="D30" s="3">
-        <v>103.30918253911165</v>
+        <v>B3</v>
+      </c>
+      <c r="B30" s="23">
+        <v>11207.74280336316</v>
+      </c>
+      <c r="C30" s="23">
+        <v>11297.732090417421</v>
+      </c>
+      <c r="D30" s="23">
+        <v>20574.297529313444</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
+      <c r="A31" s="23" t="str">
         <f>Flows!A31</f>
-        <v>STM</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="C31" s="3">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8794.9356028080419</v>
+        <v>CB</v>
+      </c>
+      <c r="B31" s="23">
+        <v>32254.056410631896</v>
+      </c>
+      <c r="C31" s="23">
+        <v>33680.461746746274</v>
+      </c>
+      <c r="D31" s="23">
+        <v>180721.76939569783</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
+      <c r="A32" s="23" t="str">
         <f>Flows!A32</f>
-        <v>H4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5429.8561042141682</v>
+        <v>CD</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1027456.5037477572</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1467427.1573803532</v>
+      </c>
+      <c r="D32" s="23">
+        <v>11627236.936898174</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
+      <c r="A33" s="23" t="str">
         <f>Flows!A33</f>
-        <v>J1</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1030.2258184707816</v>
+        <v>CI</v>
+      </c>
+      <c r="B33" s="23">
+        <v>683.94913122363914</v>
+      </c>
+      <c r="C33" s="23">
+        <v>683.94913122363914</v>
+      </c>
+      <c r="D33" s="23">
+        <v>683.94913122363914</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
+      <c r="A34" s="23" t="str">
         <f>Flows!A34</f>
-        <v>J2</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3470.9686700000002</v>
+        <v>DC</v>
+      </c>
+      <c r="B34" s="23">
+        <v>4829.1007822415077</v>
+      </c>
+      <c r="C34" s="23">
+        <v>5043.0535583315141</v>
+      </c>
+      <c r="D34" s="23">
+        <v>27098.422516145965</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
+      <c r="A35" s="23" t="str">
         <f>Flows!A35</f>
-        <v>JB</v>
-      </c>
-      <c r="B35" s="3">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="C35" s="3">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="D35" s="3">
-        <v>708.51843060302826</v>
+        <v>DE</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1176477.3775613287</v>
+      </c>
+      <c r="C35" s="23">
+        <v>1682197.5218184248</v>
+      </c>
+      <c r="D35" s="23">
+        <v>13340608.730729658</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
+      <c r="A36" s="23" t="str">
         <f>Flows!A36</f>
-        <v>JC</v>
-      </c>
-      <c r="B36" s="3">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="C36" s="3">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50.027420760144935</v>
+        <v>EF</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1175759.0945213542</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1681479.2387784503</v>
+      </c>
+      <c r="D36" s="23">
+        <v>13339890.447689682</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
+      <c r="A37" s="23" t="str">
         <f>Flows!A37</f>
-        <v>K1</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6318.6202630866837</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6318.6202630866837</v>
-      </c>
-      <c r="D37" s="3">
-        <v>6318.6202630866837</v>
+        <v>FD</v>
+      </c>
+      <c r="B37" s="23">
+        <v>153359.19264649265</v>
+      </c>
+      <c r="C37" s="23">
+        <v>219322.45532849868</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1739978.7161293542</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
+      <c r="A38" s="23" t="str">
         <f>Flows!A38</f>
-        <v>K2</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
+        <v>FK</v>
+      </c>
+      <c r="B38" s="23">
+        <v>966555.25514036044</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1403512.0948275938</v>
+      </c>
+      <c r="D38" s="23">
+        <v>11252624.109377664</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="str">
-        <f>Flows!A39</f>
-        <v>KF</v>
-      </c>
-      <c r="B39" s="3">
-        <v>108.67125253454107</v>
-      </c>
-      <c r="C39" s="3">
-        <v>114.12613107561143</v>
-      </c>
-      <c r="D39" s="3">
-        <v>676.44348466189513</v>
+      <c r="A39" s="23" t="str">
+        <f>Flows!A40</f>
+        <v>GH</v>
+      </c>
+      <c r="B39" s="23">
+        <v>17561.899402017785</v>
+      </c>
+      <c r="C39" s="23">
+        <v>17561.899402017785</v>
+      </c>
+      <c r="D39" s="23">
+        <v>17561.899402017785</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="str">
-        <f>Flows!A40</f>
-        <v>KL</v>
-      </c>
-      <c r="B40" s="3">
-        <v>966446.58388782595</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1403397.9686965183</v>
-      </c>
-      <c r="D40" s="3">
-        <v>11251947.665893001</v>
+      <c r="A40" s="23" t="str">
+        <f>Flows!A39</f>
+        <v>H4</v>
+      </c>
+      <c r="B40" s="23">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="C40" s="23">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="D40" s="23">
+        <v>5429.8561042141682</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
+      <c r="A41" s="23" t="str">
         <f>Flows!A41</f>
-        <v>L1</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2694.4458295273284</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2694.4458295273284</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2694.4458295273284</v>
+        <v>JB</v>
+      </c>
+      <c r="B41" s="23">
+        <v>708.51843060302826</v>
+      </c>
+      <c r="C41" s="23">
+        <v>708.51843060302826</v>
+      </c>
+      <c r="D41" s="23">
+        <v>708.51843060302826</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="str">
+      <c r="A42" s="23" t="str">
         <f>Flows!A42</f>
-        <v>L2</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
+        <v>JC</v>
+      </c>
+      <c r="B42" s="23">
+        <v>50.027420760144935</v>
+      </c>
+      <c r="C42" s="23">
+        <v>50.027420760144935</v>
+      </c>
+      <c r="D42" s="23">
+        <v>50.027420760144935</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="str">
+      <c r="A43" s="23" t="str">
         <f>Flows!A43</f>
-        <v>Ag</v>
-      </c>
-      <c r="B43" s="3">
-        <v>73369.473883179162</v>
-      </c>
-      <c r="C43" s="3">
-        <v>109671.24686031004</v>
-      </c>
-      <c r="D43" s="3">
-        <v>40547.826601146866</v>
+        <v>KF</v>
+      </c>
+      <c r="B43" s="23">
+        <v>108.67125253454107</v>
+      </c>
+      <c r="C43" s="23">
+        <v>114.12613107561143</v>
+      </c>
+      <c r="D43" s="23">
+        <v>676.44348466189513</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="str">
+      <c r="A44" s="23" t="str">
         <f>Flows!A44</f>
-        <v>LM</v>
-      </c>
-      <c r="B44" s="3">
-        <v>893077.11000464682</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1293726.7218362081</v>
-      </c>
-      <c r="D44" s="3">
-        <v>11211399.839291852</v>
+        <v>KL</v>
+      </c>
+      <c r="B44" s="23">
+        <v>966446.58388782595</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1403397.9686965183</v>
+      </c>
+      <c r="D44" s="23">
+        <v>11251947.665893001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="str">
+      <c r="A45" s="23" t="str">
         <f>Flows!A45</f>
-        <v>M1</v>
-      </c>
-      <c r="B45" s="3">
-        <v>413.33354580790495</v>
-      </c>
-      <c r="C45" s="3">
-        <v>413.33354580790495</v>
-      </c>
-      <c r="D45" s="3">
-        <v>413.33354580790495</v>
+        <v>LM</v>
+      </c>
+      <c r="B45" s="23">
+        <v>893077.11000464682</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1293726.7218362081</v>
+      </c>
+      <c r="D45" s="23">
+        <v>11211399.839291852</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="str">
+      <c r="A46" s="23" t="str">
         <f>Flows!A46</f>
-        <v>M2</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
+        <v>MN</v>
+      </c>
+      <c r="B46" s="23">
+        <v>153457.38998276048</v>
+      </c>
+      <c r="C46" s="23">
+        <v>166883.41799574438</v>
+      </c>
+      <c r="D46" s="23">
+        <v>9994249.5368879456</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="str">
+      <c r="A47" s="23" t="str">
         <f>Flows!A47</f>
-        <v>Au</v>
-      </c>
-      <c r="B47" s="3">
-        <v>739619.72002188757</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1126843.3038404656</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1217150.3024039101</v>
+        <v>STM</v>
+      </c>
+      <c r="B47" s="23">
+        <v>8794.9356028080419</v>
+      </c>
+      <c r="C47" s="23">
+        <v>8794.9356028080419</v>
+      </c>
+      <c r="D47" s="23">
+        <v>8794.9356028080419</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="str">
+      <c r="A48" s="23" t="str">
         <f>Flows!A48</f>
-        <v>MN</v>
-      </c>
-      <c r="B48" s="3">
-        <v>153457.38998276048</v>
-      </c>
-      <c r="C48" s="3">
-        <v>166883.41799574438</v>
-      </c>
-      <c r="D48" s="3">
-        <v>9994249.5368879456</v>
+        <v>Cu</v>
+      </c>
+      <c r="B48" s="23">
+        <v>54774.774587753811</v>
+      </c>
+      <c r="C48" s="23">
+        <v>57524.253771586227</v>
+      </c>
+      <c r="D48" s="23">
+        <v>340954.91987214651</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="str">
+      <c r="A49" s="23" t="str">
         <f>Flows!A49</f>
-        <v>N1</v>
-      </c>
-      <c r="B49" s="3">
-        <v>7407.4112151954041</v>
-      </c>
-      <c r="C49" s="3">
-        <v>7407.4112151954041</v>
-      </c>
-      <c r="D49" s="3">
-        <v>7407.4112151954041</v>
+        <v>Ag</v>
+      </c>
+      <c r="B49" s="23">
+        <v>73369.473883179162</v>
+      </c>
+      <c r="C49" s="23">
+        <v>109671.24686031004</v>
+      </c>
+      <c r="D49" s="23">
+        <v>40547.826601146866</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="str">
+      <c r="A50" s="23" t="str">
         <f>Flows!A50</f>
-        <v>N2</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
+        <v>Au</v>
+      </c>
+      <c r="B50" s="23">
+        <v>739619.72002188757</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1126843.3038404656</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1217150.3024039101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="str">
+      <c r="A51" s="23" t="str">
         <f>Flows!A51</f>
-        <v>N3</v>
-      </c>
-      <c r="B51" s="5">
-        <v>9667.6557316041435</v>
-      </c>
-      <c r="C51" s="5">
-        <v>14037.22412847646</v>
-      </c>
-      <c r="D51" s="5">
-        <v>112528.34427398071</v>
+        <v>Pd</v>
+      </c>
+      <c r="B51" s="23">
+        <v>143789.73425115633</v>
+      </c>
+      <c r="C51" s="23">
+        <v>152846.19386726792</v>
+      </c>
+      <c r="D51" s="23">
+        <v>9881721.1926139649</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="str">
+      <c r="A52" s="23" t="str">
         <f>Flows!A52</f>
-        <v>Pd</v>
-      </c>
-      <c r="B52" s="3">
-        <v>143789.73425115633</v>
-      </c>
-      <c r="C52" s="3">
-        <v>152846.19386726792</v>
-      </c>
-      <c r="D52" s="3">
-        <v>9881721.1926139649</v>
+        <v>SLW</v>
+      </c>
+      <c r="B52" s="23">
+        <v>11207.74280336316</v>
+      </c>
+      <c r="C52" s="23">
+        <v>11297.732090417421</v>
+      </c>
+      <c r="D52" s="23">
+        <v>20574.297529313444</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="str">
+      <c r="A53" s="23" t="str">
         <f>Flows!A53</f>
-        <v>SLW</v>
-      </c>
-      <c r="B53" s="3">
-        <v>11207.74280336316</v>
-      </c>
-      <c r="C53" s="3">
-        <v>11297.732090417421</v>
-      </c>
-      <c r="D53" s="3">
-        <v>20574.297529313444</v>
+        <v>HGW</v>
+      </c>
+      <c r="B53" s="23">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="C53" s="23">
+        <v>5429.8561042141682</v>
+      </c>
+      <c r="D53" s="23">
+        <v>5429.8561042141682</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="str">
-        <f>Flows!A54</f>
-        <v>HGW</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="D54" s="3">
-        <v>5429.8561042141682</v>
-      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="str">
-        <f>Flows!A55</f>
-        <v>NW</v>
-      </c>
-      <c r="B55" s="5">
-        <v>9667.6557316041435</v>
-      </c>
-      <c r="C55" s="5">
-        <v>14037.22412847646</v>
-      </c>
-      <c r="D55" s="5">
-        <v>112528.34427398071</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
@@ -33286,53 +33122,9 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33454,893 +33246,442 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CF839-FD1C-4C69-AF30-4048581D1452}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CF839-FD1C-4C69-AF30-4048581D1452}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>187</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>0</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
-        <v>0</v>
-      </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26">
-        <v>0</v>
-      </c>
-      <c r="K2" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E3" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K3" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="26">
-        <v>6.2120115428054374</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0.13164150846698966</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0.57641124005931232</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0.71167876260570495</v>
-      </c>
-      <c r="G4" s="26">
-        <v>2.7807196508643632</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1.7348330957489673</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0.2767272850601003</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0</v>
+      <c r="C4" s="24">
+        <v>2.028452698038981</v>
+      </c>
+      <c r="D4" s="21">
+        <v>9.4574780857150875E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2.1230274788961321</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>1.06</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="E5" s="24">
         <v>1.06</v>
       </c>
-      <c r="H5" s="26">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="26">
-        <v>7.3371315261967922</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0.1458923816596899</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.64917963304019421</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0.57679800615091836</v>
-      </c>
-      <c r="G6" s="26">
-        <v>3.5886850945687812</v>
-      </c>
-      <c r="H6" s="26">
-        <v>2.0496344287385013</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0.326941982038708</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0</v>
+      <c r="C6" s="24">
+        <v>2.1802428963132168</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.10168240521263457</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2.2819253015258512</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>1.04</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>1.04</v>
       </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="26">
-        <v>7.3371315261967922</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.1458923816596899</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0.64917963304019421</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0.57679800615091836</v>
-      </c>
-      <c r="G8" s="26">
-        <v>3.5886850945687812</v>
-      </c>
-      <c r="H8" s="26">
-        <v>2.0496344287385013</v>
-      </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26">
-        <v>0.326941982038708</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0</v>
+      <c r="C8" s="24">
+        <v>2.1802428963132168</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.10168240521263457</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.2819253015258512</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>0</v>
       </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="J9" s="26">
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>0</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>0</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E11" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="26">
-        <v>0.31581198224320628</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
-        <v>7.5797913302774452E-4</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0.24574768089043419</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1.4876080022717485E-6</v>
-      </c>
-      <c r="H12" s="26">
-        <v>5.977067451065033E-2</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
-        <v>9.5341601010917043E-3</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0</v>
+      <c r="C12" s="24">
+        <v>6.5549636930934907E-2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2.0405027327704507E-3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>6.7590139663705362E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>0</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>0</v>
-      </c>
-      <c r="I13" s="26">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="21">
         <v>0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E15" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K15" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>0</v>
-      </c>
-      <c r="I16" s="26">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E17" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I17" s="26">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E18" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>0</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>0</v>
       </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
-        <v>0</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E20" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I20" s="26">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>0</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>0</v>
       </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26">
-        <v>0</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E22" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0</v>
-      </c>
-      <c r="J22" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>0</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>0</v>
       </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0</v>
-      </c>
-      <c r="I23" s="26">
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
+        <v>1.7907016392155253</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.28563900711085366</v>
+      </c>
+      <c r="E24" s="24">
         <v>2.0763406463263792</v>
       </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1.7907016392155253</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0.28563900711085366</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>0</v>
       </c>
-      <c r="E25" s="26">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>0</v>
-      </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="26">
+      <c r="E25" s="24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -34359,10 +33700,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34384,7 +33725,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>Flows!A53</f>
+        <f>Flows!A52</f>
         <v>SLW</v>
       </c>
       <c r="B2" t="s">
@@ -34396,31 +33737,19 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
-        <f>Flows!A54</f>
+        <f>Flows!A53</f>
         <v>HGW</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <f>Flows!A55</f>
-        <v>NW</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C4" xr:uid="{1F0E4B7A-2C5F-4025-A238-14B0F5D8FF1B}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2:C3" xr:uid="{1F0E4B7A-2C5F-4025-A238-14B0F5D8FF1B}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
